--- a/Bao_cao/Test cases.xlsx
+++ b/Bao_cao/Test cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" windowWidth="13545" windowHeight="12210"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>CASE</t>
   </si>
@@ -31,19 +31,178 @@
     <t>TÌNH TRẠNG</t>
   </si>
   <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng Product</t>
+  </si>
+  <si>
+    <t>Spinner Select Product</t>
+  </si>
+  <si>
+    <t>Danh sách sản phẩm đã có Recipe</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng Price</t>
+  </si>
+  <si>
+    <t>Cột Price</t>
+  </si>
+  <si>
+    <t>Giá của sản phẩm đã thêm</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng Toppings</t>
+  </si>
+  <si>
+    <t>Cột Toppings</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách topping hiện có</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng Size</t>
+  </si>
+  <si>
+    <t>Cột Size</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách size hiện có</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng Sugar</t>
+  </si>
+  <si>
+    <t>Cột Sugar</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách sugar hiện có</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng Ice</t>
+  </si>
+  <si>
+    <t>Cột Ice</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách ice hiện có</t>
+  </si>
+  <si>
+    <t>Tính tổng giá sản phẩm</t>
+  </si>
+  <si>
+    <t>Cột Total</t>
+  </si>
+  <si>
+    <t>Tổng giá sản phẩm được tính = (giá sản phẩm + tổng giá toppings, + size) * số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Tính tổng giá đơn hàng</t>
+  </si>
+  <si>
+    <t>Text Sub Total</t>
+  </si>
+  <si>
+    <t>Tổng giá đơn hàng = Σ(tổng giá sản phẩm)</t>
+  </si>
+  <si>
+    <t>Tính tổng giá thuế</t>
+  </si>
+  <si>
+    <t>Text Tax Amount</t>
+  </si>
+  <si>
+    <t>Tổng giá thuế = Tổng giá đơn hàng * thuế%</t>
+  </si>
+  <si>
+    <t>Tính tổng giá đơn hàng sau thuế</t>
+  </si>
+  <si>
+    <t>Text Grand Total</t>
+  </si>
+  <si>
+    <t>Tổng giá đơn hàng sau thuế = tổng giá đơn hàng + Tổng giá thuế</t>
+  </si>
+  <si>
+    <t>Tính tiền đơn hàng</t>
+  </si>
+  <si>
+    <t>Text Payable Amount</t>
+  </si>
+  <si>
+    <t>Tiền đơn hàng = tổng giá đơn hàng sau thuế</t>
+  </si>
+  <si>
+    <t>Nhập tiền khách trả</t>
+  </si>
+  <si>
+    <t>Text Amount Tendered (50000)</t>
+  </si>
+  <si>
+    <t>Tính ra tiền cần trả lại khách</t>
+  </si>
+  <si>
+    <t>Tính tiền trả lại khách</t>
+  </si>
+  <si>
+    <t>Text Change</t>
+  </si>
+  <si>
+    <t>Tiền trả lại khách = tiền khách trả - tiền đơn hàng</t>
+  </si>
+  <si>
+    <t>Không chọn sản phẩm</t>
+  </si>
+  <si>
+    <t>Trả về lỗi không chọn sản phẩm cho nhân viên</t>
+  </si>
+  <si>
+    <t>Giao diện</t>
+  </si>
+  <si>
+    <t>Thiết kế</t>
+  </si>
+  <si>
+    <t>Đúng bản thiết kế</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Để trống</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập</t>
+  </si>
+  <si>
+    <t>Sai username, mật khẩu</t>
+  </si>
+  <si>
+    <t>(TeoVN, 123), (TeoNV, 321)</t>
+  </si>
+  <si>
+    <t>Thông báo yêu cầu nhập đúng tên người dùng và mật khẩu.</t>
+  </si>
+  <si>
+    <t>Đăng nhập đúng</t>
+  </si>
+  <si>
+    <t>TeoNV, 123</t>
+  </si>
+  <si>
+    <t>Chuyển về trang web yêu cầu trước đó</t>
+  </si>
+  <si>
     <t>Create User</t>
   </si>
   <si>
     <t>Để trống username, mật khẩu</t>
   </si>
   <si>
-    <t>Yêu cầu nhập</t>
-  </si>
-  <si>
     <t>Không chọn Group User</t>
   </si>
   <si>
-    <t>Yêu cầu chọn</t>
+    <t xml:space="preserve">Yêu cầu chọn </t>
   </si>
   <si>
     <t>Sai định dạng các thông tin của User</t>
@@ -64,51 +223,64 @@
     <t>Chuyển về trang web User List</t>
   </si>
   <si>
-    <t>Giao diện</t>
-  </si>
-  <si>
-    <t>Thiết kế</t>
-  </si>
-  <si>
-    <t>Đúng bản thiết kế</t>
-  </si>
-  <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
-    <t>Để trống</t>
-  </si>
-  <si>
-    <t>Sai username, mật khẩu</t>
-  </si>
-  <si>
-    <t>(TeoVN, 123), (TeoNV, 321)</t>
-  </si>
-  <si>
-    <t>Thông báo yêu cầu nhập đúng tên người dùng và mật khẩu.</t>
-  </si>
-  <si>
-    <t>Đăng nhập đúng</t>
-  </si>
-  <si>
-    <t>TeoNV, 123</t>
-  </si>
-  <si>
-    <t>Chuyển về trang web yêu cầu trước đó</t>
-  </si>
-  <si>
-    <t>Order</t>
+    <t>Create Category</t>
+  </si>
+  <si>
+    <t>Để trống Name</t>
+  </si>
+  <si>
+    <t>Nhập trùng Name</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t>Create Product</t>
+  </si>
+  <si>
+    <t>Để trống Name, Description, Price</t>
+  </si>
+  <si>
+    <t>Không chọn Category, Image</t>
+  </si>
+  <si>
+    <t>Create Ingredient</t>
+  </si>
+  <si>
+    <t>Giới hạn Unit</t>
+  </si>
+  <si>
+    <t>Chỉ cho phép khối lượng từ 100 đến 10000</t>
+  </si>
+  <si>
+    <t>Create Topping</t>
+  </si>
+  <si>
+    <t>Giới hạn Price</t>
+  </si>
+  <si>
+    <t>Chỉ cho phép số lượng từ 0 đến 100</t>
+  </si>
+  <si>
+    <t>Create Size</t>
+  </si>
+  <si>
+    <t>Create  Sugar</t>
+  </si>
+  <si>
+    <t>Create  Ice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -759,7 +931,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,7 +943,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -781,6 +955,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,18 +1411,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="6.14285714285714" customWidth="1"/>
-    <col min="3" max="3" width="32.2190476190476" customWidth="1"/>
-    <col min="4" max="4" width="29.8285714285714" customWidth="1"/>
-    <col min="5" max="5" width="48.8761904761905" customWidth="1"/>
+    <col min="2" max="2" width="6.13888888888889" customWidth="1"/>
+    <col min="3" max="3" width="30.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="25.287037037037" customWidth="1"/>
+    <col min="5" max="5" width="78.3518518518518" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1286,9 +1461,11 @@
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1297,11 +1474,13 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -1310,13 +1489,13 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -1325,13 +1504,13 @@
         <v>1.4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -1340,124 +1519,730 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="2:6">
-      <c r="B9" s="2">
+      <c r="B9" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:6">
+      <c r="B10" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:6">
+      <c r="B11" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:6">
+      <c r="B12" s="7">
+        <v>1.1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:6">
+      <c r="B13" s="5">
+        <v>1.11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:6">
+      <c r="B14" s="5">
+        <v>1.12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:6">
+      <c r="B15" s="5">
+        <v>1.13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:6">
+      <c r="B16" s="5">
+        <v>1.14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:6">
+      <c r="B17" s="5">
+        <v>1.15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:6">
+      <c r="B18" s="5">
+        <v>1.16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:6">
+      <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" customHeight="1" spans="2:6">
-      <c r="B10" s="9">
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:6">
+      <c r="B20" s="9">
         <v>2.1</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
+      <c r="C20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" customHeight="1" spans="2:6">
+      <c r="B21" s="9">
+        <v>2.2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:6">
+      <c r="B22" s="9">
+        <v>2.3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:6">
+      <c r="B23" s="9">
+        <v>2.3</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:6">
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:6">
+      <c r="B25" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:6">
+      <c r="B26" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:6">
+      <c r="B27" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:6">
+      <c r="B28" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:6">
+      <c r="B29" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" customHeight="1" spans="2:6">
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:6">
+      <c r="B31" s="5">
+        <v>4.1</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" customHeight="1" spans="2:6">
+      <c r="B32" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" customHeight="1" spans="2:6">
+      <c r="B33" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" customHeight="1" spans="2:6">
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" customHeight="1" spans="2:6">
+      <c r="B35" s="5">
+        <v>5.1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" customHeight="1" spans="2:6">
+      <c r="B36" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" customHeight="1" spans="2:6">
+      <c r="B37" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" customHeight="1" spans="2:6">
+      <c r="B38" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" customHeight="1" spans="2:6">
+      <c r="B39" s="2">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" customHeight="1" spans="2:6">
+      <c r="B40" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:6">
+      <c r="B41" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" customHeight="1" spans="2:6">
+      <c r="B42" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" customHeight="1" spans="2:6">
+      <c r="B43" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" customHeight="1" spans="2:6">
+      <c r="B44" s="2">
         <v>7</v>
       </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:6">
-      <c r="B11" s="9">
-        <v>2.2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" customHeight="1" spans="2:6">
-      <c r="B12" s="9">
-        <v>2.3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:6">
-      <c r="B13" s="9">
-        <v>2.3</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" customHeight="1" spans="2:6">
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" customHeight="1" spans="2:6">
-      <c r="B15" s="9">
-        <v>3.1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" customHeight="1" spans="2:6">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:6">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="C44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" customHeight="1" spans="2:6">
+      <c r="B45" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" customHeight="1" spans="2:6">
+      <c r="B46" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" customHeight="1" spans="2:6">
+      <c r="B47" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" customHeight="1" spans="2:6">
+      <c r="B48" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" customHeight="1" spans="2:6">
+      <c r="B49" s="2">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" customHeight="1" spans="2:6">
+      <c r="B50" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" customHeight="1" spans="2:6">
+      <c r="B51" s="5">
+        <v>8.2</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" customHeight="1" spans="2:6">
+      <c r="B52" s="5">
+        <v>8.3</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" customHeight="1" spans="2:6">
+      <c r="B53" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" customHeight="1" spans="2:6">
+      <c r="B54" s="2">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" customHeight="1" spans="2:6">
+      <c r="B55" s="5">
+        <v>9.1</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" customHeight="1" spans="2:6">
+      <c r="B56" s="5">
+        <v>9.2</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:6">
+      <c r="B57" s="5">
+        <v>9.3</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" customHeight="1" spans="2:6">
+      <c r="B58" s="2">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" customHeight="1" spans="2:6">
+      <c r="B59" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" customHeight="1" spans="2:6">
+      <c r="B60" s="5">
+        <v>10.2</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" customHeight="1" spans="2:6">
+      <c r="B61" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bao_cao/Test cases.xlsx
+++ b/Bao_cao/Test cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" windowWidth="22188" windowHeight="9144"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" windowWidth="13545" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="132">
   <si>
     <t>CASE</t>
   </si>
@@ -202,7 +202,7 @@
     <t>Không chọn Group User</t>
   </si>
   <si>
-    <t xml:space="preserve">Yêu cầu chọn </t>
+    <t>Yêu cầu chọn</t>
   </si>
   <si>
     <t>Sai định dạng các thông tin của User</t>
@@ -269,6 +269,147 @@
   </si>
   <si>
     <t>Create  Ice</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách Category</t>
+  </si>
+  <si>
+    <t>Trà sữa</t>
+  </si>
+  <si>
+    <t>Xoá Category</t>
+  </si>
+  <si>
+    <t>Không được xoá Category đã có Product</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách Product</t>
+  </si>
+  <si>
+    <t>Trà sữa truyền thống</t>
+  </si>
+  <si>
+    <t>Xoá Product</t>
+  </si>
+  <si>
+    <t>Không được xoá Product đã có Recipe</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách Ingredient</t>
+  </si>
+  <si>
+    <t>Bột cà phê</t>
+  </si>
+  <si>
+    <t>Xoá Ingredient</t>
+  </si>
+  <si>
+    <t>Không được xoá Ingredient ở trong Recipe</t>
+  </si>
+  <si>
+    <t>Topping</t>
+  </si>
+  <si>
+    <t>Trân châu đen</t>
+  </si>
+  <si>
+    <t>Xoá Topping</t>
+  </si>
+  <si>
+    <t>Không được xoá Topping ở trong OrderTopping</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách Ice</t>
+  </si>
+  <si>
+    <t>30% đá</t>
+  </si>
+  <si>
+    <t>Xoá Ice</t>
+  </si>
+  <si>
+    <t>Không được xoá Ice ở trong OrderIce</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách Sugar</t>
+  </si>
+  <si>
+    <t>30% đường</t>
+  </si>
+  <si>
+    <t>Xoá Sugar</t>
+  </si>
+  <si>
+    <t>Không được xoá Sugar ở trong OrderSugar</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách Size</t>
+  </si>
+  <si>
+    <t>Size M</t>
+  </si>
+  <si>
+    <t>Xoá Size</t>
+  </si>
+  <si>
+    <t>Không được xoá Size ở trong OrderSize</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Hiển thị Doanh thu theo tháng</t>
+  </si>
+  <si>
+    <t>Biểu đồ doanh thu theo tháng</t>
+  </si>
+  <si>
+    <t>Doanh thu theo tháng = tổng giá hoá đơn sau thuế trong các tháng trong năm</t>
+  </si>
+  <si>
+    <t>Hiển thị Chi phí theo tháng</t>
+  </si>
+  <si>
+    <t>Biểu đồ chi phí theo tháng</t>
+  </si>
+  <si>
+    <t>Chi phí theo tháng = tổng giá phiếu nhập theo các tháng trong năm</t>
+  </si>
+  <si>
+    <t>Hiển thị Doanh thu theo danh mục</t>
+  </si>
+  <si>
+    <t>Biểu đồ tròn doanh thu theo danh mục</t>
+  </si>
+  <si>
+    <t>Doanh thu từng danh mục = tổng giá hoá đơn theo từng danh mục</t>
+  </si>
+  <si>
+    <t>Hiển thị Doanh thu theo sản phẩm</t>
+  </si>
+  <si>
+    <t>Biểu đồ tròn doanh thu theo sản phẩm</t>
+  </si>
+  <si>
+    <t>Doanh thu theo sản phẩm = tổng giá hoá đơn theo từng sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -282,7 +423,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -298,6 +439,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -458,7 +605,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +626,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -658,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -679,6 +832,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -782,70 +948,67 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,78 +1023,81 @@
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,6 +1122,19 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,18 +1590,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F61"/>
+  <dimension ref="B2:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="6.13888888888889" customWidth="1"/>
-    <col min="3" max="3" width="30.8518518518519" customWidth="1"/>
-    <col min="4" max="4" width="25.287037037037" customWidth="1"/>
-    <col min="5" max="5" width="78.3518518518518" customWidth="1"/>
+    <col min="2" max="2" width="6.14285714285714" customWidth="1"/>
+    <col min="3" max="3" width="30.847619047619" customWidth="1"/>
+    <col min="4" max="4" width="31.5333333333333" customWidth="1"/>
+    <col min="5" max="5" width="78.352380952381" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2244,6 +2423,456 @@
       </c>
       <c r="F61" s="6"/>
     </row>
+    <row r="62" customHeight="1" spans="2:6">
+      <c r="B62" s="2">
+        <v>11</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" customHeight="1" spans="2:6">
+      <c r="B63" s="14">
+        <v>11.1</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:6">
+      <c r="B64" s="14">
+        <v>11.2</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" customHeight="1" spans="2:6">
+      <c r="B65" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" customHeight="1" spans="2:6">
+      <c r="B66" s="16">
+        <v>12</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" customHeight="1" spans="2:6">
+      <c r="B67" s="14">
+        <v>12.1</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" customHeight="1" spans="2:6">
+      <c r="B68" s="14">
+        <v>12.2</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" customHeight="1" spans="2:6">
+      <c r="B69" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" customHeight="1" spans="2:6">
+      <c r="B70" s="16">
+        <v>13</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" customHeight="1" spans="2:6">
+      <c r="B71" s="14">
+        <v>13.1</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" customHeight="1" spans="2:6">
+      <c r="B72" s="14">
+        <v>13.2</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" customHeight="1" spans="2:6">
+      <c r="B73" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" customHeight="1" spans="2:6">
+      <c r="B74" s="16">
+        <v>14</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" customHeight="1" spans="2:6">
+      <c r="B75" s="14">
+        <v>13.1</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" customHeight="1" spans="2:6">
+      <c r="B76" s="14">
+        <v>13.2</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" s="15"/>
+    </row>
+    <row r="77" customHeight="1" spans="2:6">
+      <c r="B77" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" customHeight="1" spans="2:6">
+      <c r="B78" s="16">
+        <v>15</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" customHeight="1" spans="2:6">
+      <c r="B79" s="14">
+        <v>13.1</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+    </row>
+    <row r="80" customHeight="1" spans="2:6">
+      <c r="B80" s="14">
+        <v>13.2</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" customHeight="1" spans="2:6">
+      <c r="B81" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" customHeight="1" spans="2:6">
+      <c r="B82" s="16">
+        <v>16</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" customHeight="1" spans="2:6">
+      <c r="B83" s="14">
+        <v>13.1</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+    </row>
+    <row r="84" customHeight="1" spans="2:6">
+      <c r="B84" s="14">
+        <v>13.2</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F84" s="15"/>
+    </row>
+    <row r="85" customHeight="1" spans="2:6">
+      <c r="B85" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" customHeight="1" spans="2:6">
+      <c r="B86" s="16">
+        <v>17</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" customHeight="1" spans="2:6">
+      <c r="B87" s="14">
+        <v>13.1</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+    </row>
+    <row r="88" customHeight="1" spans="2:6">
+      <c r="B88" s="14">
+        <v>13.2</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="15"/>
+    </row>
+    <row r="89" customHeight="1" spans="2:6">
+      <c r="B89" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" customHeight="1" spans="2:6">
+      <c r="B90" s="16">
+        <v>18</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" customHeight="1" spans="2:6">
+      <c r="B91" s="14">
+        <v>18.1</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F91" s="15"/>
+    </row>
+    <row r="92" customHeight="1" spans="2:6">
+      <c r="B92" s="14">
+        <v>18.2</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" s="15"/>
+    </row>
+    <row r="93" customHeight="1" spans="2:6">
+      <c r="B93" s="19">
+        <v>18.3</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F93" s="20"/>
+    </row>
+    <row r="94" customHeight="1" spans="2:6">
+      <c r="B94" s="19">
+        <v>18.4</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F94" s="20"/>
+    </row>
+    <row r="95" customHeight="1" spans="2:6">
+      <c r="B95" s="5">
+        <v>18.3</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Bao_cao/Test cases.xlsx
+++ b/Bao_cao/Test cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
   <si>
     <t>CASE</t>
   </si>
@@ -31,6 +31,42 @@
     <t>TÌNH TRẠNG</t>
   </si>
   <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Để trống</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập</t>
+  </si>
+  <si>
+    <t>Sai username, mật khẩu</t>
+  </si>
+  <si>
+    <t>(TeoVN, 123), (TeoNV, 321)</t>
+  </si>
+  <si>
+    <t>Thông báo yêu cầu nhập đúng tên người dùng và mật khẩu.</t>
+  </si>
+  <si>
+    <t>Đăng nhập đúng</t>
+  </si>
+  <si>
+    <t>TeoNV, 123</t>
+  </si>
+  <si>
+    <t>Chuyển về trang web yêu cầu trước đó</t>
+  </si>
+  <si>
+    <t>Giao diện</t>
+  </si>
+  <si>
+    <t>Thiết kế</t>
+  </si>
+  <si>
+    <t>Đúng bản thiết kế</t>
+  </si>
+  <si>
     <t>Order</t>
   </si>
   <si>
@@ -157,42 +193,6 @@
     <t>Trả về lỗi không chọn sản phẩm cho nhân viên</t>
   </si>
   <si>
-    <t>Giao diện</t>
-  </si>
-  <si>
-    <t>Thiết kế</t>
-  </si>
-  <si>
-    <t>Đúng bản thiết kế</t>
-  </si>
-  <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
-    <t>Để trống</t>
-  </si>
-  <si>
-    <t>Yêu cầu nhập</t>
-  </si>
-  <si>
-    <t>Sai username, mật khẩu</t>
-  </si>
-  <si>
-    <t>(TeoVN, 123), (TeoNV, 321)</t>
-  </si>
-  <si>
-    <t>Thông báo yêu cầu nhập đúng tên người dùng và mật khẩu.</t>
-  </si>
-  <si>
-    <t>Đăng nhập đúng</t>
-  </si>
-  <si>
-    <t>TeoNV, 123</t>
-  </si>
-  <si>
-    <t>Chuyển về trang web yêu cầu trước đó</t>
-  </si>
-  <si>
     <t>Create User</t>
   </si>
   <si>
@@ -214,6 +214,12 @@
     <t>Thông báo tạo tài khoản thất bại</t>
   </si>
   <si>
+    <t>Trùng username</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập username khác</t>
+  </si>
+  <si>
     <t>Tạo User thành công</t>
   </si>
   <si>
@@ -410,6 +416,9 @@
   </si>
   <si>
     <t>Doanh thu theo sản phẩm = tổng giá hoá đơn theo từng sản phẩm</t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
 </sst>
 </file>
@@ -421,7 +430,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1097,44 +1106,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1590,10 +1591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F95"/>
+  <dimension ref="B2:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -1640,290 +1641,290 @@
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="5">
         <v>1.2</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="5">
         <v>1.3</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" customHeight="1" spans="2:6">
       <c r="B7" s="5">
         <v>1.4</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:6">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" customHeight="1" spans="2:6">
-      <c r="B8" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:6">
+      <c r="B9" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" customHeight="1" spans="2:6">
-      <c r="B9" s="5">
-        <v>1.6</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:6">
+      <c r="B10" s="11">
+        <v>2.2</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" customHeight="1" spans="2:6">
-      <c r="B10" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:6">
+      <c r="B11" s="11">
+        <v>2.3</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:6">
-      <c r="B11" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:6">
+      <c r="B12" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" customHeight="1" spans="2:6">
-      <c r="B12" s="7">
-        <v>1.1</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:6">
+      <c r="B13" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:6">
-      <c r="B13" s="5">
-        <v>1.11</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:6">
+      <c r="B14" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" customHeight="1" spans="2:6">
-      <c r="B14" s="5">
-        <v>1.12</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:6">
+      <c r="B15" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" customHeight="1" spans="2:6">
-      <c r="B15" s="5">
-        <v>1.13</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:6">
+      <c r="B16" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" customHeight="1" spans="2:6">
-      <c r="B16" s="5">
-        <v>1.14</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:6">
+      <c r="B17" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:6">
-      <c r="B17" s="5">
-        <v>1.15</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:6">
+      <c r="B18" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" customHeight="1" spans="2:6">
-      <c r="B18" s="5">
-        <v>1.16</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:6">
+      <c r="B19" s="11">
+        <v>2.11</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:6">
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="2:6">
-      <c r="B20" s="9">
-        <v>2.1</v>
+      <c r="B20" s="11">
+        <v>2.12</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="2:6">
-      <c r="B21" s="9">
-        <v>2.2</v>
+      <c r="B21" s="11">
+        <v>2.13</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="D21" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="E21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="2:6">
-      <c r="B22" s="9">
-        <v>2.3</v>
+      <c r="B22" s="11">
+        <v>2.14</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="2:6">
-      <c r="B23" s="9">
-        <v>2.3</v>
+      <c r="B23" s="11">
+        <v>2.15</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="2:6">
       <c r="B24" s="2">
@@ -1932,12 +1933,12 @@
       <c r="C24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" customHeight="1" spans="2:6">
-      <c r="B25" s="5">
+      <c r="B25" s="11">
         <v>3.1</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1945,12 +1946,12 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="2:6">
-      <c r="B26" s="5">
+      <c r="B26" s="11">
         <v>3.2</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1963,7 +1964,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="2:6">
-      <c r="B27" s="5">
+      <c r="B27" s="11">
         <v>3.3</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -1978,900 +1979,999 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="2:6">
-      <c r="B28" s="5">
+      <c r="B28" s="11">
         <v>3.4</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:6">
+      <c r="B29" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:6">
-      <c r="B29" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>48</v>
+      <c r="D29" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="2:6">
-      <c r="B30" s="2">
+      <c r="B30" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:6">
+      <c r="B31" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" customHeight="1" spans="2:6">
-      <c r="B31" s="5">
+      <c r="C31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" customHeight="1" spans="2:6">
+      <c r="B32" s="11">
         <v>4.1</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" customHeight="1" spans="2:6">
-      <c r="B32" s="5">
-        <v>4.2</v>
-      </c>
       <c r="C32" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="2:6">
-      <c r="B33" s="5">
+      <c r="B33" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" customHeight="1" spans="2:6">
+      <c r="B34" s="11">
         <v>4.3</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" customHeight="1" spans="2:6">
-      <c r="B34" s="2">
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" customHeight="1" spans="2:6">
+      <c r="B35" s="2">
         <v>5</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" customHeight="1" spans="2:6">
-      <c r="B35" s="5">
+      <c r="C35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" customHeight="1" spans="2:6">
+      <c r="B36" s="11">
         <v>5.1</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" customHeight="1" spans="2:6">
-      <c r="B36" s="5">
-        <v>5.2</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="2:6">
-      <c r="B37" s="5">
-        <v>5.3</v>
+      <c r="B37" s="11">
+        <v>5.2</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" customHeight="1" spans="2:6">
+      <c r="B38" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" customHeight="1" spans="2:6">
+      <c r="B39" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" customHeight="1" spans="2:6">
+      <c r="B40" s="2">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:6">
+      <c r="B41" s="11">
+        <v>6.1</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" customHeight="1" spans="2:6">
-      <c r="B38" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" customHeight="1" spans="2:6">
-      <c r="B39" s="2">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" customHeight="1" spans="2:6">
-      <c r="B40" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" customHeight="1" spans="2:6">
-      <c r="B41" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" customHeight="1" spans="2:6">
-      <c r="B42" s="5">
-        <v>6.3</v>
+      <c r="B42" s="11">
+        <v>6.2</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" customHeight="1" spans="2:6">
+      <c r="B43" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" customHeight="1" spans="2:6">
+      <c r="B44" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" customHeight="1" spans="2:6">
+      <c r="B45" s="2">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" customHeight="1" spans="2:6">
+      <c r="B46" s="11">
+        <v>7.1</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" customHeight="1" spans="2:6">
-      <c r="B43" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" customHeight="1" spans="2:6">
-      <c r="B44" s="2">
-        <v>7</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" customHeight="1" spans="2:6">
-      <c r="B45" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" customHeight="1" spans="2:6">
-      <c r="B46" s="5">
-        <v>7.2</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="F46" s="6"/>
     </row>
     <row r="47" customHeight="1" spans="2:6">
-      <c r="B47" s="5">
-        <v>7.3</v>
+      <c r="B47" s="11">
+        <v>7.2</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" customHeight="1" spans="2:6">
+      <c r="B48" s="11">
+        <v>7.3</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" customHeight="1" spans="2:6">
+      <c r="B49" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" customHeight="1" spans="2:6">
+      <c r="B50" s="2">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" customHeight="1" spans="2:6">
+      <c r="B51" s="11">
+        <v>8.1</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" customHeight="1" spans="2:6">
-      <c r="B48" s="5">
-        <v>7.4</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" customHeight="1" spans="2:6">
-      <c r="B49" s="2">
-        <v>8</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" customHeight="1" spans="2:6">
-      <c r="B50" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" customHeight="1" spans="2:6">
-      <c r="B51" s="5">
-        <v>8.2</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" customHeight="1" spans="2:6">
-      <c r="B52" s="5">
-        <v>8.3</v>
+      <c r="B52" s="11">
+        <v>8.2</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" customHeight="1" spans="2:6">
+      <c r="B53" s="11">
+        <v>8.3</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" customHeight="1" spans="2:6">
+      <c r="B54" s="11">
+        <v>8.4</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" customHeight="1" spans="2:6">
+      <c r="B55" s="2">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" customHeight="1" spans="2:6">
+      <c r="B56" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" customHeight="1" spans="2:6">
-      <c r="B53" s="5">
-        <v>8.4</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" customHeight="1" spans="2:6">
-      <c r="B54" s="2">
-        <v>9</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" customHeight="1" spans="2:6">
-      <c r="B55" s="5">
-        <v>9.1</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" customHeight="1" spans="2:6">
-      <c r="B56" s="5">
-        <v>9.2</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:6">
+      <c r="B57" s="11">
+        <v>9.2</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" customHeight="1" spans="2:6">
+      <c r="B58" s="11">
+        <v>9.3</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" customHeight="1" spans="2:6">
+      <c r="B59" s="2">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" customHeight="1" spans="2:6">
+      <c r="B60" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" customHeight="1" spans="2:6">
-      <c r="B57" s="5">
-        <v>9.3</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" customHeight="1" spans="2:6">
-      <c r="B58" s="2">
-        <v>10</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" customHeight="1" spans="2:6">
-      <c r="B59" s="5">
-        <v>10.1</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" customHeight="1" spans="2:6">
-      <c r="B60" s="5">
-        <v>10.2</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" customHeight="1" spans="2:6">
-      <c r="B61" s="5">
+      <c r="B61" s="11">
+        <v>10.2</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" customHeight="1" spans="2:6">
+      <c r="B62" s="11">
         <v>10.3</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" customHeight="1" spans="2:6">
-      <c r="B62" s="2">
+      <c r="C62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" customHeight="1" spans="2:6">
+      <c r="B63" s="2">
         <v>11</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" customHeight="1" spans="2:6">
-      <c r="B63" s="14">
+      <c r="C63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:6">
+      <c r="B64" s="5">
         <v>11.1</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-    </row>
-    <row r="64" customHeight="1" spans="2:6">
-      <c r="B64" s="14">
-        <v>11.2</v>
-      </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
+      <c r="D64" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F64" s="15"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" customHeight="1" spans="2:6">
       <c r="B65" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" customHeight="1" spans="2:6">
+      <c r="B66" s="11">
         <v>11.3</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" customHeight="1" spans="2:6">
-      <c r="B66" s="16">
-        <v>12</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
+      <c r="C66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="6"/>
     </row>
     <row r="67" customHeight="1" spans="2:6">
       <c r="B67" s="14">
+        <v>12</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" customHeight="1" spans="2:6">
+      <c r="B68" s="5">
         <v>12.1</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-    </row>
-    <row r="68" customHeight="1" spans="2:6">
-      <c r="B68" s="14">
-        <v>12.2</v>
-      </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15" t="s">
+      <c r="D68" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F68" s="15"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" customHeight="1" spans="2:6">
       <c r="B69" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" customHeight="1" spans="2:6">
+      <c r="B70" s="11">
         <v>12.3</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" customHeight="1" spans="2:6">
-      <c r="B70" s="16">
-        <v>13</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
+      <c r="C70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="6"/>
     </row>
     <row r="71" customHeight="1" spans="2:6">
       <c r="B71" s="14">
+        <v>13</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" customHeight="1" spans="2:6">
+      <c r="B72" s="5">
         <v>13.1</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-    </row>
-    <row r="72" customHeight="1" spans="2:6">
-      <c r="B72" s="14">
-        <v>13.2</v>
-      </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15" t="s">
+      <c r="D72" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="15"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" customHeight="1" spans="2:6">
       <c r="B73" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" customHeight="1" spans="2:6">
+      <c r="B74" s="11">
         <v>12.3</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" customHeight="1" spans="2:6">
-      <c r="B74" s="16">
+      <c r="C74" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
+      <c r="D74" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="6"/>
     </row>
     <row r="75" customHeight="1" spans="2:6">
       <c r="B75" s="14">
+        <v>14</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" customHeight="1" spans="2:6">
+      <c r="B76" s="5">
         <v>13.1</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-    </row>
-    <row r="76" customHeight="1" spans="2:6">
-      <c r="B76" s="14">
-        <v>13.2</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15" t="s">
+      <c r="C76" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F76" s="15"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
     </row>
     <row r="77" customHeight="1" spans="2:6">
       <c r="B77" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" customHeight="1" spans="2:6">
+      <c r="B78" s="11">
         <v>12.3</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" customHeight="1" spans="2:6">
-      <c r="B78" s="16">
+      <c r="C78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
+      <c r="E78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="6"/>
     </row>
     <row r="79" customHeight="1" spans="2:6">
       <c r="B79" s="14">
+        <v>15</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+    </row>
+    <row r="80" customHeight="1" spans="2:6">
+      <c r="B80" s="5">
         <v>13.1</v>
       </c>
-      <c r="C79" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-    </row>
-    <row r="80" customHeight="1" spans="2:6">
-      <c r="B80" s="14">
-        <v>13.2</v>
-      </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15" t="s">
+      <c r="D80" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F80" s="15"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" customHeight="1" spans="2:6">
       <c r="B81" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" customHeight="1" spans="2:6">
+      <c r="B82" s="11">
         <v>12.3</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" customHeight="1" spans="2:6">
-      <c r="B82" s="16">
+      <c r="C82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83" customHeight="1" spans="2:6">
       <c r="B83" s="14">
+        <v>16</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+    </row>
+    <row r="84" customHeight="1" spans="2:6">
+      <c r="B84" s="5">
         <v>13.1</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-    </row>
-    <row r="84" customHeight="1" spans="2:6">
-      <c r="B84" s="14">
-        <v>13.2</v>
-      </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15" t="s">
+      <c r="D84" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F84" s="15"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" customHeight="1" spans="2:6">
       <c r="B85" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" customHeight="1" spans="2:6">
+      <c r="B86" s="11">
         <v>12.3</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" customHeight="1" spans="2:6">
-      <c r="B86" s="16">
-        <v>17</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
+      <c r="C86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="6"/>
     </row>
     <row r="87" customHeight="1" spans="2:6">
       <c r="B87" s="14">
+        <v>17</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+    </row>
+    <row r="88" customHeight="1" spans="2:6">
+      <c r="B88" s="5">
         <v>13.1</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-    </row>
-    <row r="88" customHeight="1" spans="2:6">
-      <c r="B88" s="14">
-        <v>13.2</v>
-      </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15" t="s">
+      <c r="D88" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F88" s="15"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" customHeight="1" spans="2:6">
       <c r="B89" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" customHeight="1" spans="2:6">
+      <c r="B90" s="11">
         <v>12.3</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" customHeight="1" spans="2:6">
-      <c r="B90" s="16">
-        <v>18</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
+      <c r="C90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="6"/>
     </row>
     <row r="91" customHeight="1" spans="2:6">
       <c r="B91" s="14">
+        <v>18</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" customHeight="1" spans="2:6">
+      <c r="B92" s="5">
         <v>18.1</v>
       </c>
-      <c r="C91" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E91" s="15" t="s">
+      <c r="C92" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F91" s="15"/>
-    </row>
-    <row r="92" customHeight="1" spans="2:6">
-      <c r="B92" s="14">
+      <c r="D92" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" customHeight="1" spans="2:6">
+      <c r="B93" s="5">
         <v>18.2</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C93" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" customHeight="1" spans="2:6">
+      <c r="B94" s="11">
+        <v>18.3</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" customHeight="1" spans="2:6">
+      <c r="B95" s="11">
+        <v>18.4</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" customHeight="1" spans="2:6">
+      <c r="B96" s="11">
+        <v>18.3</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" customHeight="1" spans="2:6">
+      <c r="B97" s="14">
+        <v>19</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+    </row>
+    <row r="98" customHeight="1" spans="2:6">
+      <c r="B98" s="5">
+        <v>18.1</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="E98" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" customHeight="1" spans="2:6">
+      <c r="B99" s="5">
+        <v>18.2</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F92" s="15"/>
-    </row>
-    <row r="93" customHeight="1" spans="2:6">
-      <c r="B93" s="19">
+      <c r="D99" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" customHeight="1" spans="2:6">
+      <c r="B100" s="11">
         <v>18.3</v>
       </c>
-      <c r="C93" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" s="20" t="s">
+      <c r="C100" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F93" s="20"/>
-    </row>
-    <row r="94" customHeight="1" spans="2:6">
-      <c r="B94" s="19">
+      <c r="D100" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" customHeight="1" spans="2:6">
+      <c r="B101" s="11">
         <v>18.4</v>
       </c>
-      <c r="C94" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E94" s="20" t="s">
+      <c r="C101" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F94" s="20"/>
-    </row>
-    <row r="95" customHeight="1" spans="2:6">
-      <c r="B95" s="5">
+      <c r="D101" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" customHeight="1" spans="2:6">
+      <c r="B102" s="11">
         <v>18.3</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F95" s="6"/>
+      <c r="C102" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bao_cao/Test cases.xlsx
+++ b/Bao_cao/Test cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="138">
   <si>
     <t>CASE</t>
   </si>
@@ -193,6 +193,18 @@
     <t>Trả về lỗi không chọn sản phẩm cho nhân viên</t>
   </si>
   <si>
+    <t>Số lượng &lt; 0</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập lại quantity</t>
+  </si>
+  <si>
+    <t>Thuế &lt; 0</t>
+  </si>
+  <si>
+    <t>Yêu cầu nhập lại thuế</t>
+  </si>
+  <si>
     <t>Create User</t>
   </si>
   <si>
@@ -416,9 +428,6 @@
   </si>
   <si>
     <t>Doanh thu theo sản phẩm = tổng giá hoá đơn theo từng sản phẩm</t>
-  </si>
-  <si>
-    <t>Report</t>
   </si>
 </sst>
 </file>
@@ -1591,10 +1600,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F102"/>
+  <dimension ref="B2:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -1916,1062 +1925,1002 @@
         <v>2.15</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="2:6">
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="11">
+        <v>2.16</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="2:6">
       <c r="B25" s="11">
-        <v>3.1</v>
+        <v>2.17</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E25" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="2:6">
-      <c r="B26" s="11">
-        <v>3.2</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="6"/>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" customHeight="1" spans="2:6">
       <c r="B27" s="11">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="2:6">
       <c r="B28" s="11">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="2:6">
       <c r="B29" s="11">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="E29" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="2:6">
       <c r="B30" s="11">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D30" s="13"/>
       <c r="E30" s="6" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="2:6">
-      <c r="B31" s="2">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="B31" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="2:6">
       <c r="B32" s="11">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E32" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="2:6">
-      <c r="B33" s="11">
-        <v>4.2</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="6"/>
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" customHeight="1" spans="2:6">
       <c r="B34" s="11">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" customHeight="1" spans="2:6">
-      <c r="B35" s="2">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" customHeight="1" spans="2:6">
       <c r="B36" s="11">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E36" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="2:6">
-      <c r="B37" s="11">
-        <v>5.2</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="6"/>
+      <c r="B37" s="2">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" customHeight="1" spans="2:6">
       <c r="B38" s="11">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" customHeight="1" spans="2:6">
       <c r="B39" s="11">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" customHeight="1" spans="2:6">
-      <c r="B40" s="2">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="11">
+        <v>5.3</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" customHeight="1" spans="2:6">
       <c r="B41" s="11">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E41" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" customHeight="1" spans="2:6">
-      <c r="B42" s="11">
-        <v>6.2</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="6"/>
+      <c r="B42" s="2">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" customHeight="1" spans="2:6">
       <c r="B43" s="11">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="F43" s="6"/>
     </row>
     <row r="44" customHeight="1" spans="2:6">
       <c r="B44" s="11">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" customHeight="1" spans="2:6">
-      <c r="B45" s="2">
-        <v>7</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="B45" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" customHeight="1" spans="2:6">
       <c r="B46" s="11">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" customHeight="1" spans="2:6">
+      <c r="B47" s="2">
         <v>7</v>
       </c>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" customHeight="1" spans="2:6">
-      <c r="B47" s="11">
-        <v>7.2</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="6"/>
+      <c r="C47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" customHeight="1" spans="2:6">
       <c r="B48" s="11">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" customHeight="1" spans="2:6">
       <c r="B49" s="11">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" customHeight="1" spans="2:6">
-      <c r="B50" s="2">
-        <v>8</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="B50" s="11">
+        <v>7.3</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" customHeight="1" spans="2:6">
       <c r="B51" s="11">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E51" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" customHeight="1" spans="2:6">
-      <c r="B52" s="11">
-        <v>8.2</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="6"/>
+      <c r="B52" s="2">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" customHeight="1" spans="2:6">
       <c r="B53" s="11">
-        <v>8.3</v>
+        <v>8.1</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" customHeight="1" spans="2:6">
       <c r="B54" s="11">
-        <v>8.4</v>
+        <v>8.2</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" customHeight="1" spans="2:6">
-      <c r="B55" s="2">
-        <v>9</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="B55" s="11">
+        <v>8.3</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" customHeight="1" spans="2:6">
       <c r="B56" s="11">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E56" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F56" s="6"/>
     </row>
     <row r="57" customHeight="1" spans="2:6">
-      <c r="B57" s="11">
-        <v>9.2</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="6"/>
+      <c r="B57" s="2">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" customHeight="1" spans="2:6">
       <c r="B58" s="11">
-        <v>9.3</v>
+        <v>9.1</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" customHeight="1" spans="2:6">
-      <c r="B59" s="2">
-        <v>10</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="B59" s="11">
+        <v>9.2</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" customHeight="1" spans="2:6">
       <c r="B60" s="11">
-        <v>10.1</v>
+        <v>9.3</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E60" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" customHeight="1" spans="2:6">
-      <c r="B61" s="11">
-        <v>10.2</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F61" s="6"/>
+      <c r="B61" s="2">
+        <v>10</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" customHeight="1" spans="2:6">
       <c r="B62" s="11">
+        <v>10.1</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" customHeight="1" spans="2:6">
+      <c r="B63" s="11">
+        <v>10.2</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:6">
+      <c r="B64" s="11">
         <v>10.3</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" customHeight="1" spans="2:6">
-      <c r="B63" s="2">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" customHeight="1" spans="2:6">
+      <c r="B65" s="2">
         <v>11</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" customHeight="1" spans="2:6">
-      <c r="B64" s="5">
+      <c r="C65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" customHeight="1" spans="2:6">
+      <c r="B66" s="5">
         <v>11.1</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" customHeight="1" spans="2:6">
-      <c r="B65" s="5">
+      <c r="C66" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" customHeight="1" spans="2:6">
+      <c r="B67" s="5">
         <v>11.2</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" customHeight="1" spans="2:6">
-      <c r="B66" s="11">
+      <c r="C67" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" customHeight="1" spans="2:6">
+      <c r="B68" s="11">
         <v>11.3</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" customHeight="1" spans="2:6">
-      <c r="B67" s="14">
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" customHeight="1" spans="2:6">
+      <c r="B69" s="14">
         <v>12</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" customHeight="1" spans="2:6">
-      <c r="B68" s="5">
+      <c r="C69" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" customHeight="1" spans="2:6">
+      <c r="B70" s="5">
         <v>12.1</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" customHeight="1" spans="2:6">
-      <c r="B69" s="5">
+      <c r="C70" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" customHeight="1" spans="2:6">
+      <c r="B71" s="5">
         <v>12.2</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" customHeight="1" spans="2:6">
-      <c r="B70" s="11">
+      <c r="C71" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" customHeight="1" spans="2:6">
+      <c r="B72" s="11">
         <v>12.3</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" customHeight="1" spans="2:6">
-      <c r="B71" s="14">
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" customHeight="1" spans="2:6">
+      <c r="B73" s="14">
         <v>13</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-    </row>
-    <row r="72" customHeight="1" spans="2:6">
-      <c r="B72" s="5">
+      <c r="C73" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+    </row>
+    <row r="74" customHeight="1" spans="2:6">
+      <c r="B74" s="5">
         <v>13.1</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" customHeight="1" spans="2:6">
-      <c r="B73" s="5">
+      <c r="C74" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" customHeight="1" spans="2:6">
+      <c r="B75" s="5">
         <v>13.2</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" customHeight="1" spans="2:6">
-      <c r="B74" s="11">
+      <c r="C75" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" customHeight="1" spans="2:6">
+      <c r="B76" s="11">
         <v>12.3</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" customHeight="1" spans="2:6">
-      <c r="B75" s="14">
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" customHeight="1" spans="2:6">
+      <c r="B77" s="14">
         <v>14</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C77" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+    </row>
+    <row r="78" customHeight="1" spans="2:6">
+      <c r="B78" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" customHeight="1" spans="2:6">
-      <c r="B76" s="5">
+      <c r="D78" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" customHeight="1" spans="2:6">
+      <c r="B79" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" customHeight="1" spans="2:6">
+      <c r="B80" s="11">
+        <v>12.3</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" customHeight="1" spans="2:6">
+      <c r="B81" s="14">
+        <v>15</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+    </row>
+    <row r="82" customHeight="1" spans="2:6">
+      <c r="B82" s="5">
         <v>13.1</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" customHeight="1" spans="2:6">
-      <c r="B77" s="5">
+      <c r="C82" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" customHeight="1" spans="2:6">
+      <c r="B83" s="5">
         <v>13.2</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" customHeight="1" spans="2:6">
-      <c r="B78" s="11">
+      <c r="C83" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" customHeight="1" spans="2:6">
+      <c r="B84" s="11">
         <v>12.3</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" customHeight="1" spans="2:6">
-      <c r="B79" s="14">
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" customHeight="1" spans="2:6">
+      <c r="B85" s="14">
+        <v>16</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+    </row>
+    <row r="86" customHeight="1" spans="2:6">
+      <c r="B86" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" customHeight="1" spans="2:6">
+      <c r="B87" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" customHeight="1" spans="2:6">
+      <c r="B88" s="11">
+        <v>12.3</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-    </row>
-    <row r="80" customHeight="1" spans="2:6">
-      <c r="B80" s="5">
+      <c r="E88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" customHeight="1" spans="2:6">
+      <c r="B89" s="14">
+        <v>17</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+    </row>
+    <row r="90" customHeight="1" spans="2:6">
+      <c r="B90" s="5">
         <v>13.1</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" customHeight="1" spans="2:6">
-      <c r="B81" s="5">
+      <c r="C90" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" customHeight="1" spans="2:6">
+      <c r="B91" s="5">
         <v>13.2</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" customHeight="1" spans="2:6">
-      <c r="B82" s="11">
+      <c r="C91" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" customHeight="1" spans="2:6">
+      <c r="B92" s="11">
         <v>12.3</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" customHeight="1" spans="2:6">
-      <c r="B83" s="14">
-        <v>16</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-    </row>
-    <row r="84" customHeight="1" spans="2:6">
-      <c r="B84" s="5">
-        <v>13.1</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" customHeight="1" spans="2:6">
-      <c r="B85" s="5">
-        <v>13.2</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" customHeight="1" spans="2:6">
-      <c r="B86" s="11">
-        <v>12.3</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" customHeight="1" spans="2:6">
-      <c r="B87" s="14">
-        <v>17</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-    </row>
-    <row r="88" customHeight="1" spans="2:6">
-      <c r="B88" s="5">
-        <v>13.1</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" customHeight="1" spans="2:6">
-      <c r="B89" s="5">
-        <v>13.2</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" customHeight="1" spans="2:6">
-      <c r="B90" s="11">
-        <v>12.3</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91" customHeight="1" spans="2:6">
-      <c r="B91" s="14">
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" customHeight="1" spans="2:6">
+      <c r="B93" s="14">
         <v>18</v>
       </c>
-      <c r="C91" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-    </row>
-    <row r="92" customHeight="1" spans="2:6">
-      <c r="B92" s="5">
+      <c r="C93" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+    </row>
+    <row r="94" customHeight="1" spans="2:6">
+      <c r="B94" s="5">
         <v>18.1</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" customHeight="1" spans="2:6">
-      <c r="B93" s="5">
+      <c r="C94" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" customHeight="1" spans="2:6">
+      <c r="B95" s="5">
         <v>18.2</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" customHeight="1" spans="2:6">
-      <c r="B94" s="11">
-        <v>18.3</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D94" s="6" t="s">
+      <c r="C95" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="D95" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95" customHeight="1" spans="2:6">
-      <c r="B95" s="11">
-        <v>18.4</v>
-      </c>
-      <c r="C95" s="6" t="s">
+      <c r="E95" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F95" s="6"/>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" customHeight="1" spans="2:6">
       <c r="B96" s="11">
         <v>18.3</v>
       </c>
       <c r="C96" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" customHeight="1" spans="2:6">
+      <c r="B97" s="11">
+        <v>18.4</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" customHeight="1" spans="2:6">
+      <c r="B98" s="11">
+        <v>18.3</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" customHeight="1" spans="2:6">
-      <c r="B97" s="14">
-        <v>19</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-    </row>
-    <row r="98" customHeight="1" spans="2:6">
-      <c r="B98" s="5">
-        <v>18.1</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" customHeight="1" spans="2:6">
-      <c r="B99" s="5">
-        <v>18.2</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F99" s="7"/>
-    </row>
-    <row r="100" customHeight="1" spans="2:6">
-      <c r="B100" s="11">
-        <v>18.3</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F100" s="6"/>
-    </row>
-    <row r="101" customHeight="1" spans="2:6">
-      <c r="B101" s="11">
-        <v>18.4</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F101" s="6"/>
-    </row>
-    <row r="102" customHeight="1" spans="2:6">
-      <c r="B102" s="11">
-        <v>18.3</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="6"/>
+      <c r="F98" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bao_cao/Test cases.xlsx
+++ b/Bao_cao/Test cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" windowWidth="13545" windowHeight="12210"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" windowWidth="27945" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="134">
   <si>
     <t>CASE</t>
   </si>
@@ -265,19 +265,7 @@
     <t>Create Ingredient</t>
   </si>
   <si>
-    <t>Giới hạn Unit</t>
-  </si>
-  <si>
-    <t>Chỉ cho phép khối lượng từ 100 đến 10000</t>
-  </si>
-  <si>
     <t>Create Topping</t>
-  </si>
-  <si>
-    <t>Giới hạn Price</t>
-  </si>
-  <si>
-    <t>Chỉ cho phép số lượng từ 0 đến 100</t>
   </si>
   <si>
     <t>Create Size</t>
@@ -1600,10 +1588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F98"/>
+  <dimension ref="B2:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -2202,11 +2190,11 @@
         <v>6.2</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F44" s="6"/>
     </row>
@@ -2215,712 +2203,673 @@
         <v>6.3</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E45" s="6" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" customHeight="1" spans="2:6">
-      <c r="B46" s="11">
-        <v>6.4</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="6"/>
+      <c r="B46" s="2">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" customHeight="1" spans="2:6">
-      <c r="B47" s="2">
+      <c r="B47" s="11">
+        <v>7.1</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" customHeight="1" spans="2:6">
       <c r="B48" s="11">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" customHeight="1" spans="2:6">
       <c r="B49" s="11">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E49" s="6" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" customHeight="1" spans="2:6">
-      <c r="B50" s="11">
-        <v>7.3</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="6"/>
+      <c r="B50" s="2">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="51" customHeight="1" spans="2:6">
       <c r="B51" s="11">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" customHeight="1" spans="2:6">
-      <c r="B52" s="2">
-        <v>8</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="B52" s="11">
+        <v>8.2</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" customHeight="1" spans="2:6">
       <c r="B53" s="11">
-        <v>8.1</v>
+        <v>8.3</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E53" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" customHeight="1" spans="2:6">
-      <c r="B54" s="11">
-        <v>8.2</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F54" s="6"/>
+      <c r="B54" s="2">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" customHeight="1" spans="2:6">
       <c r="B55" s="11">
-        <v>8.3</v>
+        <v>9.1</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" customHeight="1" spans="2:6">
       <c r="B56" s="11">
-        <v>8.4</v>
+        <v>9.2</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:6">
+      <c r="B57" s="11">
+        <v>9.3</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" customHeight="1" spans="2:6">
-      <c r="B57" s="2">
-        <v>9</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" customHeight="1" spans="2:6">
-      <c r="B58" s="11">
-        <v>9.1</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="6"/>
+      <c r="B58" s="2">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" customHeight="1" spans="2:6">
       <c r="B59" s="11">
-        <v>9.2</v>
+        <v>10.1</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" customHeight="1" spans="2:6">
       <c r="B60" s="11">
-        <v>9.3</v>
+        <v>10.2</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" customHeight="1" spans="2:6">
+      <c r="B61" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" customHeight="1" spans="2:6">
-      <c r="B61" s="2">
-        <v>10</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" customHeight="1" spans="2:6">
+      <c r="B62" s="2">
+        <v>11</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" customHeight="1" spans="2:6">
+      <c r="B63" s="5">
+        <v>11.1</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:6">
+      <c r="B64" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" customHeight="1" spans="2:6">
-      <c r="B62" s="11">
-        <v>10.1</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" customHeight="1" spans="2:6">
-      <c r="B63" s="11">
-        <v>10.2</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" customHeight="1" spans="2:6">
-      <c r="B64" s="11">
-        <v>10.3</v>
-      </c>
-      <c r="C64" s="6" t="s">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" customHeight="1" spans="2:6">
+      <c r="B65" s="11">
+        <v>11.3</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" customHeight="1" spans="2:6">
-      <c r="B65" s="2">
-        <v>11</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" customHeight="1" spans="2:6">
-      <c r="B66" s="5">
-        <v>11.1</v>
-      </c>
-      <c r="C66" s="7" t="s">
+      <c r="B66" s="14">
+        <v>12</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" customHeight="1" spans="2:6">
       <c r="B67" s="5">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" customHeight="1" spans="2:6">
+      <c r="B68" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" customHeight="1" spans="2:6">
-      <c r="B68" s="11">
-        <v>11.3</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" customHeight="1" spans="2:6">
+      <c r="B69" s="11">
+        <v>12.3</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" customHeight="1" spans="2:6">
-      <c r="B69" s="14">
-        <v>12</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70" customHeight="1" spans="2:6">
-      <c r="B70" s="5">
-        <v>12.1</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="14">
+        <v>13</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
     </row>
     <row r="71" customHeight="1" spans="2:6">
       <c r="B71" s="5">
-        <v>12.2</v>
+        <v>13.1</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" customHeight="1" spans="2:6">
+      <c r="B72" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" customHeight="1" spans="2:6">
-      <c r="B72" s="11">
+      <c r="D72" s="7"/>
+      <c r="E72" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" customHeight="1" spans="2:6">
+      <c r="B73" s="11">
         <v>12.3</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" customHeight="1" spans="2:6">
-      <c r="B73" s="14">
-        <v>13</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
+      <c r="F73" s="6"/>
     </row>
     <row r="74" customHeight="1" spans="2:6">
-      <c r="B74" s="5">
-        <v>13.1</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="14">
+        <v>14</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
     </row>
     <row r="75" customHeight="1" spans="2:6">
       <c r="B75" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" customHeight="1" spans="2:6">
+      <c r="B76" s="5">
         <v>13.2</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7" t="s">
+      <c r="D76" s="7"/>
+      <c r="E76" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" customHeight="1" spans="2:6">
-      <c r="B76" s="11">
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" customHeight="1" spans="2:6">
+      <c r="B77" s="11">
         <v>12.3</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D77" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" customHeight="1" spans="2:6">
-      <c r="B77" s="14">
-        <v>14</v>
-      </c>
-      <c r="C77" s="15" t="s">
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" customHeight="1" spans="2:6">
+      <c r="B78" s="14">
+        <v>15</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-    </row>
-    <row r="78" customHeight="1" spans="2:6">
-      <c r="B78" s="5">
-        <v>13.1</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
     </row>
     <row r="79" customHeight="1" spans="2:6">
       <c r="B79" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" customHeight="1" spans="2:6">
+      <c r="B80" s="5">
         <v>13.2</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" customHeight="1" spans="2:6">
-      <c r="B80" s="11">
+      <c r="D80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" customHeight="1" spans="2:6">
+      <c r="B81" s="11">
         <v>12.3</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D81" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" customHeight="1" spans="2:6">
-      <c r="B81" s="14">
-        <v>15</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
+      <c r="F81" s="6"/>
     </row>
     <row r="82" customHeight="1" spans="2:6">
-      <c r="B82" s="5">
-        <v>13.1</v>
-      </c>
-      <c r="C82" s="7" t="s">
+      <c r="B82" s="14">
+        <v>16</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
     </row>
     <row r="83" customHeight="1" spans="2:6">
       <c r="B83" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" customHeight="1" spans="2:6">
+      <c r="B84" s="5">
         <v>13.2</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" customHeight="1" spans="2:6">
-      <c r="B84" s="11">
+      <c r="D84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" customHeight="1" spans="2:6">
+      <c r="B85" s="11">
         <v>12.3</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" customHeight="1" spans="2:6">
-      <c r="B85" s="14">
-        <v>16</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
+      <c r="F85" s="6"/>
     </row>
     <row r="86" customHeight="1" spans="2:6">
-      <c r="B86" s="5">
-        <v>13.1</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="14">
+        <v>17</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
     </row>
     <row r="87" customHeight="1" spans="2:6">
       <c r="B87" s="5">
+        <v>13.1</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" customHeight="1" spans="2:6">
+      <c r="B88" s="5">
         <v>13.2</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" customHeight="1" spans="2:6">
-      <c r="B88" s="11">
+      <c r="D88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" customHeight="1" spans="2:6">
+      <c r="B89" s="11">
         <v>12.3</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" customHeight="1" spans="2:6">
-      <c r="B89" s="14">
-        <v>17</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90" customHeight="1" spans="2:6">
-      <c r="B90" s="5">
-        <v>13.1</v>
-      </c>
-      <c r="C90" s="7" t="s">
+      <c r="B90" s="14">
+        <v>18</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
     </row>
     <row r="91" customHeight="1" spans="2:6">
       <c r="B91" s="5">
-        <v>13.2</v>
+        <v>18.1</v>
       </c>
       <c r="C91" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D91" s="7"/>
       <c r="E91" s="7" t="s">
         <v>124</v>
       </c>
       <c r="F91" s="7"/>
     </row>
     <row r="92" customHeight="1" spans="2:6">
-      <c r="B92" s="11">
-        <v>12.3</v>
-      </c>
-      <c r="C92" s="6" t="s">
+      <c r="B92" s="5">
+        <v>18.2</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" customHeight="1" spans="2:6">
+      <c r="B93" s="11">
+        <v>18.3</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" customHeight="1" spans="2:6">
+      <c r="B94" s="11">
+        <v>18.4</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" customHeight="1" spans="2:6">
+      <c r="B95" s="11">
+        <v>18.3</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93" customHeight="1" spans="2:6">
-      <c r="B93" s="14">
-        <v>18</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-    </row>
-    <row r="94" customHeight="1" spans="2:6">
-      <c r="B94" s="5">
-        <v>18.1</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" customHeight="1" spans="2:6">
-      <c r="B95" s="5">
-        <v>18.2</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" customHeight="1" spans="2:6">
-      <c r="B96" s="11">
-        <v>18.3</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" customHeight="1" spans="2:6">
-      <c r="B97" s="11">
-        <v>18.4</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" customHeight="1" spans="2:6">
-      <c r="B98" s="11">
-        <v>18.3</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="6"/>
+      <c r="F95" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bao_cao/Test cases.xlsx
+++ b/Bao_cao/Test cases.xlsx
@@ -1591,7 +1591,7 @@
   <dimension ref="B2:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -1599,7 +1599,7 @@
     <col min="2" max="2" width="6.14285714285714" customWidth="1"/>
     <col min="3" max="3" width="30.847619047619" customWidth="1"/>
     <col min="4" max="4" width="31.5333333333333" customWidth="1"/>
-    <col min="5" max="5" width="78.352380952381" customWidth="1"/>
+    <col min="5" max="5" width="80.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
